--- a/Study_api_test/test_datas/api_test_case.xlsx
+++ b/Study_api_test/test_datas/api_test_case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>五</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,26 @@
   </si>
   <si>
     <t>userid=123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getuserinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid=123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -466,6 +486,40 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Study_api_test/test_datas/api_test_case.xlsx
+++ b/Study_api_test/test_datas/api_test_case.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,15 +42,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name=wdp&amp;password=123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/loginout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
+    <t>/getuserinfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,27 +50,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userid=123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/getuserinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid=123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>douban</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baifubao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.douban.com/v2/book/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.baifubao.com/callback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百年孤独</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd=1059&amp;callback=phone&amp;phone=15823777272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>荒野求生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>围城</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +185,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,15 +210,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,103 +517,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="75.75" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>200</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2">
         <v>200</v>
       </c>
-      <c r="E2">
+      <c r="G4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
         <v>200</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
+      <c r="G5" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
